--- a/public/template/template posyandu.xlsx
+++ b/public/template/template posyandu.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\posyandu-balita\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15989518-681D-4DB4-BA6B-7CA1E7051BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFF0513-BB14-455D-880C-622FBB6E141F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="2652" windowWidth="23304" windowHeight="9420" xr2:uid="{2445C941-2109-4916-90BA-3DD962FE00F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{2445C941-2109-4916-90BA-3DD962FE00F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Posyandu" sheetId="1" r:id="rId1"/>
@@ -2545,7 +2545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2555,7 +2555,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2874,7 +2873,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2882,13 +2881,13 @@
     <col min="1" max="1" width="17.109375" customWidth="1"/>
     <col min="2" max="2" width="33.109375" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="4" max="4" width="19" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.77734375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="21" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -3605,7 +3604,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="str">
-        <f>C2&amp;" "&amp;B2</f>
+        <f t="shared" ref="A2:A7" si="0">C2&amp;" "&amp;B2</f>
         <v>31 DKI JAKARTA</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3617,7 +3616,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="str">
-        <f>C3&amp;" "&amp;B3</f>
+        <f t="shared" si="0"/>
         <v>32 JAWA BARAT</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -3629,7 +3628,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="str">
-        <f>C4&amp;" "&amp;B4</f>
+        <f t="shared" si="0"/>
         <v>33 JAWA TENGAH</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3641,7 +3640,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="str">
-        <f>C5&amp;" "&amp;B5</f>
+        <f t="shared" si="0"/>
         <v>34 DI YOGYAKARTA</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -3653,7 +3652,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="str">
-        <f>C6&amp;" "&amp;B6</f>
+        <f t="shared" si="0"/>
         <v>35 JAWA TIMUR</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3665,7 +3664,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="str">
-        <f>C7&amp;" "&amp;B7</f>
+        <f t="shared" si="0"/>
         <v>36 BANTEN</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -3882,7 +3881,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="str">
-        <f>E2&amp;" "&amp;D2</f>
+        <f t="shared" ref="C2:C39" si="0">E2&amp;" "&amp;D2</f>
         <v>35.01 KABUPATEN PACITAN</v>
       </c>
       <c r="D2" t="s">
@@ -3900,7 +3899,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="str">
-        <f>E3&amp;" "&amp;D3</f>
+        <f t="shared" si="0"/>
         <v>35.02 KABUPATEN PONOROGO</v>
       </c>
       <c r="D3" t="s">
@@ -3918,7 +3917,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="str">
-        <f>E4&amp;" "&amp;D4</f>
+        <f t="shared" si="0"/>
         <v>35.03 KABUPATEN TRENGGALEK</v>
       </c>
       <c r="D4" t="s">
@@ -3936,7 +3935,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="str">
-        <f>E5&amp;" "&amp;D5</f>
+        <f t="shared" si="0"/>
         <v>35.04 KABUPATEN TULUNGAGUNG</v>
       </c>
       <c r="D5" t="s">
@@ -3954,7 +3953,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="str">
-        <f>E6&amp;" "&amp;D6</f>
+        <f t="shared" si="0"/>
         <v>35.05 KABUPATEN BLITAR</v>
       </c>
       <c r="D6" t="s">
@@ -3972,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="str">
-        <f>E7&amp;" "&amp;D7</f>
+        <f t="shared" si="0"/>
         <v>35.06 KABUPATEN KEDIRI</v>
       </c>
       <c r="D7" t="s">
@@ -3990,7 +3989,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="str">
-        <f>E8&amp;" "&amp;D8</f>
+        <f t="shared" si="0"/>
         <v>35.07 KABUPATEN MALANG</v>
       </c>
       <c r="D8" t="s">
@@ -4008,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="str">
-        <f>E9&amp;" "&amp;D9</f>
+        <f t="shared" si="0"/>
         <v>35.08 KABUPATEN LUMAJANG</v>
       </c>
       <c r="D9" t="s">
@@ -4026,7 +4025,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="str">
-        <f>E10&amp;" "&amp;D10</f>
+        <f t="shared" si="0"/>
         <v>35.09 KABUPATEN JEMBER</v>
       </c>
       <c r="D10" t="s">
@@ -4044,7 +4043,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="str">
-        <f>E11&amp;" "&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>35.10 KABUPATEN BANYUWANGI</v>
       </c>
       <c r="D11" t="s">
@@ -4062,7 +4061,7 @@
         <v>10</v>
       </c>
       <c r="C12" t="str">
-        <f>E12&amp;" "&amp;D12</f>
+        <f t="shared" si="0"/>
         <v>35.11 KABUPATEN BONDOWOSO</v>
       </c>
       <c r="D12" t="s">
@@ -4080,7 +4079,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="str">
-        <f>E13&amp;" "&amp;D13</f>
+        <f t="shared" si="0"/>
         <v>35.12 KABUPATEN SITUBONDO</v>
       </c>
       <c r="D13" t="s">
@@ -4098,7 +4097,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="str">
-        <f>E14&amp;" "&amp;D14</f>
+        <f t="shared" si="0"/>
         <v>35.13 KABUPATEN PROBOLINGGO</v>
       </c>
       <c r="D14" t="s">
@@ -4116,7 +4115,7 @@
         <v>10</v>
       </c>
       <c r="C15" t="str">
-        <f>E15&amp;" "&amp;D15</f>
+        <f t="shared" si="0"/>
         <v>35.14 KABUPATEN PASURUAN</v>
       </c>
       <c r="D15" t="s">
@@ -4134,7 +4133,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="str">
-        <f>E16&amp;" "&amp;D16</f>
+        <f t="shared" si="0"/>
         <v>35.15 KABUPATEN SIDOARJO</v>
       </c>
       <c r="D16" t="s">
@@ -4152,7 +4151,7 @@
         <v>10</v>
       </c>
       <c r="C17" t="str">
-        <f>E17&amp;" "&amp;D17</f>
+        <f t="shared" si="0"/>
         <v>35.16 KABUPATEN MOJOKERTO</v>
       </c>
       <c r="D17" t="s">
@@ -4170,7 +4169,7 @@
         <v>10</v>
       </c>
       <c r="C18" t="str">
-        <f>E18&amp;" "&amp;D18</f>
+        <f t="shared" si="0"/>
         <v>35.17 KABUPATEN JOMBANG</v>
       </c>
       <c r="D18" t="s">
@@ -4188,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="C19" t="str">
-        <f>E19&amp;" "&amp;D19</f>
+        <f t="shared" si="0"/>
         <v>35.18 KABUPATEN NGANJUK</v>
       </c>
       <c r="D19" t="s">
@@ -4206,7 +4205,7 @@
         <v>10</v>
       </c>
       <c r="C20" t="str">
-        <f>E20&amp;" "&amp;D20</f>
+        <f t="shared" si="0"/>
         <v>35.19 KABUPATEN MADIUN</v>
       </c>
       <c r="D20" t="s">
@@ -4224,7 +4223,7 @@
         <v>10</v>
       </c>
       <c r="C21" t="str">
-        <f>E21&amp;" "&amp;D21</f>
+        <f t="shared" si="0"/>
         <v>35.20 KABUPATEN MAGETAN</v>
       </c>
       <c r="D21" t="s">
@@ -4242,7 +4241,7 @@
         <v>10</v>
       </c>
       <c r="C22" t="str">
-        <f>E22&amp;" "&amp;D22</f>
+        <f t="shared" si="0"/>
         <v>35.21 KABUPATEN NGAWI</v>
       </c>
       <c r="D22" t="s">
@@ -4260,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="C23" t="str">
-        <f>E23&amp;" "&amp;D23</f>
+        <f t="shared" si="0"/>
         <v>35.22 KABUPATEN BOJONEGORO</v>
       </c>
       <c r="D23" t="s">
@@ -4278,7 +4277,7 @@
         <v>10</v>
       </c>
       <c r="C24" t="str">
-        <f>E24&amp;" "&amp;D24</f>
+        <f t="shared" si="0"/>
         <v>35.23 KABUPATEN TUBAN</v>
       </c>
       <c r="D24" t="s">
@@ -4296,7 +4295,7 @@
         <v>10</v>
       </c>
       <c r="C25" t="str">
-        <f>E25&amp;" "&amp;D25</f>
+        <f t="shared" si="0"/>
         <v>35.24 KABUPATEN LAMONGAN</v>
       </c>
       <c r="D25" t="s">
@@ -4314,7 +4313,7 @@
         <v>10</v>
       </c>
       <c r="C26" t="str">
-        <f>E26&amp;" "&amp;D26</f>
+        <f t="shared" si="0"/>
         <v>35.25 KABUPATEN GRESIK</v>
       </c>
       <c r="D26" t="s">
@@ -4332,7 +4331,7 @@
         <v>10</v>
       </c>
       <c r="C27" t="str">
-        <f>E27&amp;" "&amp;D27</f>
+        <f t="shared" si="0"/>
         <v>35.26 KABUPATEN BANGKALAN</v>
       </c>
       <c r="D27" t="s">
@@ -4350,7 +4349,7 @@
         <v>10</v>
       </c>
       <c r="C28" t="str">
-        <f>E28&amp;" "&amp;D28</f>
+        <f t="shared" si="0"/>
         <v>35.27 KABUPATEN SAMPANG</v>
       </c>
       <c r="D28" t="s">
@@ -4368,7 +4367,7 @@
         <v>10</v>
       </c>
       <c r="C29" t="str">
-        <f>E29&amp;" "&amp;D29</f>
+        <f t="shared" si="0"/>
         <v>35.28 KABUPATEN PAMEKASAN</v>
       </c>
       <c r="D29" t="s">
@@ -4386,7 +4385,7 @@
         <v>10</v>
       </c>
       <c r="C30" t="str">
-        <f>E30&amp;" "&amp;D30</f>
+        <f t="shared" si="0"/>
         <v>35.29 KABUPATEN SUMENEP</v>
       </c>
       <c r="D30" t="s">
@@ -4404,7 +4403,7 @@
         <v>10</v>
       </c>
       <c r="C31" t="str">
-        <f>E31&amp;" "&amp;D31</f>
+        <f t="shared" si="0"/>
         <v>35.71 KOTA KEDIRI</v>
       </c>
       <c r="D31" t="s">
@@ -4422,7 +4421,7 @@
         <v>10</v>
       </c>
       <c r="C32" t="str">
-        <f>E32&amp;" "&amp;D32</f>
+        <f t="shared" si="0"/>
         <v>35.72 KOTA BLITAR</v>
       </c>
       <c r="D32" t="s">
@@ -4440,7 +4439,7 @@
         <v>10</v>
       </c>
       <c r="C33" t="str">
-        <f>E33&amp;" "&amp;D33</f>
+        <f t="shared" si="0"/>
         <v>35.73 KOTA MALANG</v>
       </c>
       <c r="D33" t="s">
@@ -4458,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="str">
-        <f>E34&amp;" "&amp;D34</f>
+        <f t="shared" si="0"/>
         <v>35.74 KOTA PROBOLINGGO</v>
       </c>
       <c r="D34" t="s">
@@ -4476,7 +4475,7 @@
         <v>10</v>
       </c>
       <c r="C35" t="str">
-        <f>E35&amp;" "&amp;D35</f>
+        <f t="shared" si="0"/>
         <v>35.75 KOTA PASURUAN</v>
       </c>
       <c r="D35" t="s">
@@ -4494,7 +4493,7 @@
         <v>10</v>
       </c>
       <c r="C36" t="str">
-        <f>E36&amp;" "&amp;D36</f>
+        <f t="shared" si="0"/>
         <v>35.76 KOTA MOJOKERTO</v>
       </c>
       <c r="D36" t="s">
@@ -4512,7 +4511,7 @@
         <v>10</v>
       </c>
       <c r="C37" t="str">
-        <f>E37&amp;" "&amp;D37</f>
+        <f t="shared" si="0"/>
         <v>35.77 KOTA MADIUN</v>
       </c>
       <c r="D37" t="s">
@@ -4530,7 +4529,7 @@
         <v>10</v>
       </c>
       <c r="C38" t="str">
-        <f>E38&amp;" "&amp;D38</f>
+        <f t="shared" si="0"/>
         <v>35.78 KOTA SURABAYA</v>
       </c>
       <c r="D38" t="s">
@@ -4548,7 +4547,7 @@
         <v>10</v>
       </c>
       <c r="C39" t="str">
-        <f>E39&amp;" "&amp;D39</f>
+        <f t="shared" si="0"/>
         <v>35.79 KOTA BATU</v>
       </c>
       <c r="D39" t="s">
@@ -4599,20 +4598,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>E2&amp; " " &amp;D2</f>
+        <f t="shared" ref="C2:C19" si="0">E2&amp; " " &amp;D2</f>
         <v>35.15.01 TARIK</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>794</v>
       </c>
     </row>
@@ -4624,7 +4623,7 @@
         <v>92</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>E3&amp; " " &amp;D3</f>
+        <f t="shared" si="0"/>
         <v>35.15.02 PRAMBON</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -4642,7 +4641,7 @@
         <v>92</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>E4&amp; " " &amp;D4</f>
+        <f t="shared" si="0"/>
         <v>35.15.03 KREMBUNG</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -4660,7 +4659,7 @@
         <v>92</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>E5&amp; " " &amp;D5</f>
+        <f t="shared" si="0"/>
         <v>35.15.04 PORONG</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -4678,7 +4677,7 @@
         <v>92</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>E6&amp; " " &amp;D6</f>
+        <f t="shared" si="0"/>
         <v>35.15.05 JABON</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -4696,7 +4695,7 @@
         <v>92</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>E7&amp; " " &amp;D7</f>
+        <f t="shared" si="0"/>
         <v>35.15.06 TANGGULANGIN</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -4714,7 +4713,7 @@
         <v>92</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>E8&amp; " " &amp;D8</f>
+        <f t="shared" si="0"/>
         <v>35.15.07 CANDI</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -4732,7 +4731,7 @@
         <v>92</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>E9&amp; " " &amp;D9</f>
+        <f t="shared" si="0"/>
         <v>35.15.08 SIDOARJO</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -4750,7 +4749,7 @@
         <v>92</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>E10&amp; " " &amp;D10</f>
+        <f t="shared" si="0"/>
         <v>35.15.09 TULANGAN</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -4768,7 +4767,7 @@
         <v>92</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>E11&amp; " " &amp;D11</f>
+        <f t="shared" si="0"/>
         <v>35.15.10 WONOAYU</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -4786,7 +4785,7 @@
         <v>92</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>E12&amp; " " &amp;D12</f>
+        <f t="shared" si="0"/>
         <v>35.15.11 KRIAN</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -4804,7 +4803,7 @@
         <v>92</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>E13&amp; " " &amp;D13</f>
+        <f t="shared" si="0"/>
         <v>35.15.12 BALONGBENDO</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -4822,7 +4821,7 @@
         <v>92</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>E14&amp; " " &amp;D14</f>
+        <f t="shared" si="0"/>
         <v>35.15.13 TAMAN</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -4840,7 +4839,7 @@
         <v>92</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>E15&amp; " " &amp;D15</f>
+        <f t="shared" si="0"/>
         <v>35.15.14 SUKODONO</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -4858,7 +4857,7 @@
         <v>92</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>E16&amp; " " &amp;D16</f>
+        <f t="shared" si="0"/>
         <v>35.15.15 BUDURAN</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -4876,7 +4875,7 @@
         <v>92</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>E17&amp; " " &amp;D17</f>
+        <f t="shared" si="0"/>
         <v>35.15.16 GEDANGAN</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -4894,7 +4893,7 @@
         <v>92</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>E18&amp; " " &amp;D18</f>
+        <f t="shared" si="0"/>
         <v>35.15.17 SEDATI</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -4912,7 +4911,7 @@
         <v>92</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>E19&amp; " " &amp;D19</f>
+        <f t="shared" si="0"/>
         <v>35.15.18 WARU</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -5186,14 +5185,14 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f>E2&amp;" "&amp;D2</f>
+        <f t="shared" ref="C2:C65" si="0">E2&amp;" "&amp;D2</f>
         <v>35.15.01.2001 MLIRIPROWO</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5204,14 +5203,14 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>E3&amp;" "&amp;D3</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2002 KEDUNGBOCOK</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5222,14 +5221,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f>E4&amp;" "&amp;D4</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2003 SINGOGALIH</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -5240,14 +5239,14 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f>E5&amp;" "&amp;D5</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2004 TARIK</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -5258,14 +5257,14 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f>E6&amp;" "&amp;D6</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2005 MERGOBENER</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -5276,14 +5275,14 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f>E7&amp;" "&amp;D7</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2006 MERGOSARI</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -5294,14 +5293,14 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f>E8&amp;" "&amp;D8</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2007 KENDALSEWU</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -5312,14 +5311,14 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f>E9&amp;" "&amp;D9</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2008 KLANTINGSARI</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -5330,14 +5329,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f>E10&amp;" "&amp;D10</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2009 KALIMATI</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -5348,14 +5347,14 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f>E11&amp;" "&amp;D11</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2010 GEMPOLKLUTUK</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -5366,14 +5365,14 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f>E12&amp;" "&amp;D12</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2011 BANJARWUNGU</v>
       </c>
       <c r="D12" s="3" t="s">
@@ -5384,14 +5383,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f>E13&amp;" "&amp;D13</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2012 BALONGMACEKAN</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5402,14 +5401,14 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f>E14&amp;" "&amp;D14</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2013 GAMPINGROWO</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -5420,14 +5419,14 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f>E15&amp;" "&amp;D15</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2014 SEBANI</v>
       </c>
       <c r="D15" s="3" t="s">
@@ -5438,14 +5437,14 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f>E16&amp;" "&amp;D16</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2015 KRAMATTEMENGGUNG</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -5456,14 +5455,14 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>E17&amp;" "&amp;D17</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2016 MINDUGADING</v>
       </c>
       <c r="D17" s="3" t="s">
@@ -5474,14 +5473,14 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>796</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f>E18&amp;" "&amp;D18</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2017 KEMUNING</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -5492,14 +5491,14 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f>E19&amp;" "&amp;D19</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2018 JANTI</v>
       </c>
       <c r="D19" s="3" t="s">
@@ -5510,14 +5509,14 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f>E20&amp;" "&amp;D20</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2019 SEGODOBANCANG</v>
       </c>
       <c r="D20" s="3" t="s">
@@ -5528,14 +5527,14 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>794</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f>E21&amp;" "&amp;D21</f>
+        <f t="shared" si="0"/>
         <v>35.15.01.2020 KEDINDING</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -5546,14 +5545,14 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f>E22&amp;" "&amp;D22</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2001 PRAMBON</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -5564,14 +5563,14 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f>E23&amp;" "&amp;D23</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2002 KAJARTENGGULI</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -5582,14 +5581,14 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f>E24&amp;" "&amp;D24</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2003 GEDANGROWO</v>
       </c>
       <c r="D24" s="3" t="s">
@@ -5600,14 +5599,14 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f>E25&amp;" "&amp;D25</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2004 WIROBITING</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -5618,14 +5617,14 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f>E26&amp;" "&amp;D26</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2005 SIMPANG</v>
       </c>
       <c r="D26" s="3" t="s">
@@ -5636,14 +5635,14 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f>E27&amp;" "&amp;D27</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2006 BULANG</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -5654,14 +5653,14 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f>E28&amp;" "&amp;D28</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2007 GAMPANG</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -5672,14 +5671,14 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f>E29&amp;" "&amp;D29</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2008 JATIKALANG</v>
       </c>
       <c r="D29" s="3" t="s">
@@ -5690,14 +5689,14 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f>E30&amp;" "&amp;D30</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2009 JATIALUN-ALUN</v>
       </c>
       <c r="D30" s="3" t="s">
@@ -5708,14 +5707,14 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f>E31&amp;" "&amp;D31</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2010 PEJANGKUNGAN</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -5726,14 +5725,14 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f>E32&amp;" "&amp;D32</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2011 KEDUNGSUGO</v>
       </c>
       <c r="D32" s="3" t="s">
@@ -5744,14 +5743,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f>E33&amp;" "&amp;D33</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2012 KEDUNGWONOKERTO</v>
       </c>
       <c r="D33" s="3" t="s">
@@ -5762,14 +5761,14 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f>E34&amp;" "&amp;D34</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2013 BENDOTRETEK</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -5780,14 +5779,14 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f>E35&amp;" "&amp;D35</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2014 WONOPLINTAHAN</v>
       </c>
       <c r="D35" s="3" t="s">
@@ -5798,14 +5797,14 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f>E36&amp;" "&amp;D36</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2015 KEDUNGKEMBAR</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -5816,14 +5815,14 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f>E37&amp;" "&amp;D37</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2016 JEDONGCANGKRING</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -5834,14 +5833,14 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f>E38&amp;" "&amp;D38</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2017 CANGKRINGTURI</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -5852,14 +5851,14 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f>E39&amp;" "&amp;D39</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2018 SIMOGIRANG</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -5870,14 +5869,14 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f>E40&amp;" "&amp;D40</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2019 TEMU</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -5888,14 +5887,14 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f>E41&amp;" "&amp;D41</f>
+        <f t="shared" si="0"/>
         <v>35.15.02.2020 WATUTULIS</v>
       </c>
       <c r="D41" s="3" t="s">
@@ -5906,14 +5905,14 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f>E42&amp;" "&amp;D42</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2001 TAMBAKREJO</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -5924,14 +5923,14 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f>E43&amp;" "&amp;D43</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2002 KEPER</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -5942,14 +5941,14 @@
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f>E44&amp;" "&amp;D44</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2003 KEDUNGSUMUR</v>
       </c>
       <c r="D44" s="3" t="s">
@@ -5960,14 +5959,14 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C45" s="3" t="str">
-        <f>E45&amp;" "&amp;D45</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2004 KEDUNGRAWAN</v>
       </c>
       <c r="D45" s="3" t="s">
@@ -5978,14 +5977,14 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f>E46&amp;" "&amp;D46</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2005 TANJEKWAGIR</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -5996,14 +5995,14 @@
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C47" s="3" t="str">
-        <f>E47&amp;" "&amp;D47</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2006 MOJORUNTUT</v>
       </c>
       <c r="D47" s="3" t="s">
@@ -6014,14 +6013,14 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C48" s="3" t="str">
-        <f>E48&amp;" "&amp;D48</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2007 GADING</v>
       </c>
       <c r="D48" s="3" t="s">
@@ -6032,14 +6031,14 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f>E49&amp;" "&amp;D49</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2008 WANGKAL</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -6050,14 +6049,14 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C50" s="3" t="str">
-        <f>E50&amp;" "&amp;D50</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2009 JENGGOT</v>
       </c>
       <c r="D50" s="3" t="s">
@@ -6068,14 +6067,14 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C51" s="3" t="str">
-        <f>E51&amp;" "&amp;D51</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2010 WAUNG</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -6086,14 +6085,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C52" s="3" t="str">
-        <f>E52&amp;" "&amp;D52</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2011 PLOSO</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -6104,14 +6103,14 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C53" s="3" t="str">
-        <f>E53&amp;" "&amp;D53</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2012 REJENI</v>
       </c>
       <c r="D53" s="3" t="s">
@@ -6122,14 +6121,14 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C54" s="3" t="str">
-        <f>E54&amp;" "&amp;D54</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2013 KANDANGAN</v>
       </c>
       <c r="D54" s="3" t="s">
@@ -6140,14 +6139,14 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C55" s="3" t="str">
-        <f>E55&amp;" "&amp;D55</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2014 KREMBUNG</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -6158,14 +6157,14 @@
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C56" s="3" t="str">
-        <f>E56&amp;" "&amp;D56</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2015 LEMUJUT</v>
       </c>
       <c r="D56" s="3" t="s">
@@ -6176,14 +6175,14 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C57" s="3" t="str">
-        <f>E57&amp;" "&amp;D57</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2016 CANGKRING</v>
       </c>
       <c r="D57" s="3" t="s">
@@ -6194,14 +6193,14 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C58" s="3" t="str">
-        <f>E58&amp;" "&amp;D58</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2017 KERET</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -6212,14 +6211,14 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C59" s="3" t="str">
-        <f>E59&amp;" "&amp;D59</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2018 WONOMLATI</v>
       </c>
       <c r="D59" s="3" t="s">
@@ -6230,14 +6229,14 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>797</v>
       </c>
       <c r="C60" s="3" t="str">
-        <f>E60&amp;" "&amp;D60</f>
+        <f t="shared" si="0"/>
         <v>35.15.03.2019 BALONGGARUT</v>
       </c>
       <c r="D60" s="3" t="s">
@@ -6248,14 +6247,14 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C61" s="3" t="str">
-        <f>E61&amp;" "&amp;D61</f>
+        <f t="shared" si="0"/>
         <v>35.15.04.1003 PORONG</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -6266,14 +6265,14 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C62" s="3" t="str">
-        <f>E62&amp;" "&amp;D62</f>
+        <f t="shared" si="0"/>
         <v>35.15.04.1004 JUWETKENONGO</v>
       </c>
       <c r="D62" s="3" t="s">
@@ -6284,14 +6283,14 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C63" s="3" t="str">
-        <f>E63&amp;" "&amp;D63</f>
+        <f t="shared" si="0"/>
         <v>35.15.04.1006 GEDANG</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -6302,14 +6301,14 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C64" s="3" t="str">
-        <f>E64&amp;" "&amp;D64</f>
+        <f t="shared" si="0"/>
         <v>35.15.04.2001 KEBONAGUNG</v>
       </c>
       <c r="D64" s="3" t="s">
@@ -6320,14 +6319,14 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C65" s="3" t="str">
-        <f>E65&amp;" "&amp;D65</f>
+        <f t="shared" si="0"/>
         <v>35.15.04.2002 KEDUNGSOLO</v>
       </c>
       <c r="D65" s="3" t="s">
@@ -6338,14 +6337,14 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f>E66&amp;" "&amp;D66</f>
+        <f t="shared" ref="C66:C129" si="1">E66&amp;" "&amp;D66</f>
         <v>35.15.04.2007 KESAMBI</v>
       </c>
       <c r="D66" s="3" t="s">
@@ -6356,14 +6355,14 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f>E67&amp;" "&amp;D67</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2008 KEBAKALAN</v>
       </c>
       <c r="D67" s="3" t="s">
@@ -6374,14 +6373,14 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f>E68&amp;" "&amp;D68</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2009 LAJUK</v>
       </c>
       <c r="D68" s="3" t="s">
@@ -6392,14 +6391,14 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f>E69&amp;" "&amp;D69</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2010 KEDUNGBOTO</v>
       </c>
       <c r="D69" s="3" t="s">
@@ -6410,14 +6409,14 @@
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f>E70&amp;" "&amp;D70</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2011 CANDIPARI</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -6428,14 +6427,14 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f>E71&amp;" "&amp;D71</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2012 PAMOTAN</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -6446,14 +6445,14 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f>E72&amp;" "&amp;D72</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2015 GLAGAHARUM</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -6464,14 +6463,14 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f>E73&amp;" "&amp;D73</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2016 PLUMBON</v>
       </c>
       <c r="D73" s="3" t="s">
@@ -6482,14 +6481,14 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C74" s="3" t="str">
-        <f>E74&amp;" "&amp;D74</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2018 WUNUT</v>
       </c>
       <c r="D74" s="3" t="s">
@@ -6500,14 +6499,14 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>798</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f>E75&amp;" "&amp;D75</f>
+        <f t="shared" si="1"/>
         <v>35.15.04.2019 PESAWAHAN</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -6518,14 +6517,14 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f>E76&amp;" "&amp;D76</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2001 PANGGREH</v>
       </c>
       <c r="D76" s="3" t="s">
@@ -6536,14 +6535,14 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C77" s="3" t="str">
-        <f>E77&amp;" "&amp;D77</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2002 TROMPOASRI</v>
       </c>
       <c r="D77" s="3" t="s">
@@ -6554,14 +6553,14 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C78" s="3" t="str">
-        <f>E78&amp;" "&amp;D78</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2003 KEDUNGREJO</v>
       </c>
       <c r="D78" s="3" t="s">
@@ -6572,14 +6571,14 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C79" s="3" t="str">
-        <f>E79&amp;" "&amp;D79</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2004 SEMAMBUNG</v>
       </c>
       <c r="D79" s="3" t="s">
@@ -6590,14 +6589,14 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f>E80&amp;" "&amp;D80</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2005 KEDUNGPANDAN</v>
       </c>
       <c r="D80" s="3" t="s">
@@ -6608,14 +6607,14 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C81" s="3" t="str">
-        <f>E81&amp;" "&amp;D81</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2006 KUPANG</v>
       </c>
       <c r="D81" s="3" t="s">
@@ -6626,14 +6625,14 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C82" s="3" t="str">
-        <f>E82&amp;" "&amp;D82</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2007 TAMBAKKALISOGO</v>
       </c>
       <c r="D82" s="3" t="s">
@@ -6644,14 +6643,14 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C83" s="3" t="str">
-        <f>E83&amp;" "&amp;D83</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2008 BALONGTANI</v>
       </c>
       <c r="D83" s="3" t="s">
@@ -6662,14 +6661,14 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f>E84&amp;" "&amp;D84</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2009 JEMIRAHAN</v>
       </c>
       <c r="D84" s="3" t="s">
@@ -6680,14 +6679,14 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f>E85&amp;" "&amp;D85</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2010 DUKUHSARI</v>
       </c>
       <c r="D85" s="3" t="s">
@@ -6698,14 +6697,14 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C86" s="3" t="str">
-        <f>E86&amp;" "&amp;D86</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2011 KEDUNGCANGKRING</v>
       </c>
       <c r="D86" s="3" t="s">
@@ -6716,14 +6715,14 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C87" s="3" t="str">
-        <f>E87&amp;" "&amp;D87</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2014 KEBOGUYANG</v>
       </c>
       <c r="D87" s="3" t="s">
@@ -6734,14 +6733,14 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>799</v>
       </c>
       <c r="C88" s="3" t="str">
-        <f>E88&amp;" "&amp;D88</f>
+        <f t="shared" si="1"/>
         <v>35.15.05.2015 PERMISAN</v>
       </c>
       <c r="D88" s="3" t="s">
@@ -6752,14 +6751,14 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C89" s="3" t="str">
-        <f>E89&amp;" "&amp;D89</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2001 KALISAMPURNO</v>
       </c>
       <c r="D89" s="3" t="s">
@@ -6770,14 +6769,14 @@
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C90" s="3" t="str">
-        <f>E90&amp;" "&amp;D90</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2002 KETAPANG</v>
       </c>
       <c r="D90" s="3" t="s">
@@ -6788,14 +6787,14 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C91" s="3" t="str">
-        <f>E91&amp;" "&amp;D91</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2004 KALITENGAH</v>
       </c>
       <c r="D91" s="3" t="s">
@@ -6806,14 +6805,14 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C92" s="3" t="str">
-        <f>E92&amp;" "&amp;D92</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2005 GEMPOLSARI</v>
       </c>
       <c r="D92" s="3" t="s">
@@ -6824,14 +6823,14 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C93" s="3" t="str">
-        <f>E93&amp;" "&amp;D93</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2006 SENTUL</v>
       </c>
       <c r="D93" s="3" t="s">
@@ -6842,14 +6841,14 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C94" s="3" t="str">
-        <f>E94&amp;" "&amp;D94</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2007 PENATARSEWU</v>
       </c>
       <c r="D94" s="3" t="s">
@@ -6860,14 +6859,14 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C95" s="3" t="str">
-        <f>E95&amp;" "&amp;D95</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2008 BANJARASRI</v>
       </c>
       <c r="D95" s="3" t="s">
@@ -6878,14 +6877,14 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C96" s="3" t="str">
-        <f>E96&amp;" "&amp;D96</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2009 BANJARPANJI</v>
       </c>
       <c r="D96" s="3" t="s">
@@ -6896,14 +6895,14 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C97" s="3" t="str">
-        <f>E97&amp;" "&amp;D97</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2010 KEDUNGBANTENG</v>
       </c>
       <c r="D97" s="3" t="s">
@@ -6914,14 +6913,14 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C98" s="3" t="str">
-        <f>E98&amp;" "&amp;D98</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2011 KALIDAWIR</v>
       </c>
       <c r="D98" s="3" t="s">
@@ -6932,14 +6931,14 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C99" s="3" t="str">
-        <f>E99&amp;" "&amp;D99</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2012 PUTAT</v>
       </c>
       <c r="D99" s="3" t="s">
@@ -6950,14 +6949,14 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C100" s="3" t="str">
-        <f>E100&amp;" "&amp;D100</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2013 NGABAN</v>
       </c>
       <c r="D100" s="3" t="s">
@@ -6968,14 +6967,14 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C101" s="3" t="str">
-        <f>E101&amp;" "&amp;D101</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2014 KLUDAN</v>
       </c>
       <c r="D101" s="3" t="s">
@@ -6986,14 +6985,14 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C102" s="3" t="str">
-        <f>E102&amp;" "&amp;D102</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2015 BORO</v>
       </c>
       <c r="D102" s="3" t="s">
@@ -7004,14 +7003,14 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C103" s="3" t="str">
-        <f>E103&amp;" "&amp;D103</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2016 KEDENSARI</v>
       </c>
       <c r="D103" s="3" t="s">
@@ -7022,14 +7021,14 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C104" s="3" t="str">
-        <f>E104&amp;" "&amp;D104</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2017 KETEGAN</v>
       </c>
       <c r="D104" s="3" t="s">
@@ -7040,14 +7039,14 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C105" s="3" t="str">
-        <f>E105&amp;" "&amp;D105</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2018 GANGGANGPANJANG</v>
       </c>
       <c r="D105" s="3" t="s">
@@ -7058,14 +7057,14 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>800</v>
       </c>
       <c r="C106" s="3" t="str">
-        <f>E106&amp;" "&amp;D106</f>
+        <f t="shared" si="1"/>
         <v>35.15.06.2019 RANDEGAN</v>
       </c>
       <c r="D106" s="3" t="s">
@@ -7076,14 +7075,14 @@
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C107" s="3" t="str">
-        <f>E107&amp;" "&amp;D107</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2001 KARANGTANJUNG</v>
       </c>
       <c r="D107" s="3" t="s">
@@ -7094,14 +7093,14 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C108" s="3" t="str">
-        <f>E108&amp;" "&amp;D108</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2002 SUMORAME</v>
       </c>
       <c r="D108" s="3" t="s">
@@ -7112,14 +7111,14 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C109" s="3" t="str">
-        <f>E109&amp;" "&amp;D109</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2003 NGAMPELSARI</v>
       </c>
       <c r="D109" s="3" t="s">
@@ -7130,14 +7129,14 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C110" s="3" t="str">
-        <f>E110&amp;" "&amp;D110</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2004 BALONGGABUS</v>
       </c>
       <c r="D110" s="3" t="s">
@@ -7148,14 +7147,14 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C111" s="3" t="str">
-        <f>E111&amp;" "&amp;D111</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2005 BALONGDOWO</v>
       </c>
       <c r="D111" s="3" t="s">
@@ -7166,14 +7165,14 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C112" s="3" t="str">
-        <f>E112&amp;" "&amp;D112</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2006 KENDALPECABEAN</v>
       </c>
       <c r="D112" s="3" t="s">
@@ -7184,14 +7183,14 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C113" s="3" t="str">
-        <f>E113&amp;" "&amp;D113</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2007 KEDUNGPELUK</v>
       </c>
       <c r="D113" s="3" t="s">
@@ -7202,14 +7201,14 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C114" s="3" t="str">
-        <f>E114&amp;" "&amp;D114</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2008 KALIPECABEAN</v>
       </c>
       <c r="D114" s="3" t="s">
@@ -7220,14 +7219,14 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C115" s="3" t="str">
-        <f>E115&amp;" "&amp;D115</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2009 KLURAK</v>
       </c>
       <c r="D115" s="3" t="s">
@@ -7238,14 +7237,14 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C116" s="3" t="str">
-        <f>E116&amp;" "&amp;D116</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2010 KEBONSARI</v>
       </c>
       <c r="D116" s="3" t="s">
@@ -7256,14 +7255,14 @@
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C117" s="3" t="str">
-        <f>E117&amp;" "&amp;D117</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2011 GELAM</v>
       </c>
       <c r="D117" s="3" t="s">
@@ -7274,14 +7273,14 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C118" s="3" t="str">
-        <f>E118&amp;" "&amp;D118</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2012 CANDI</v>
       </c>
       <c r="D118" s="3" t="s">
@@ -7292,14 +7291,14 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C119" s="3" t="str">
-        <f>E119&amp;" "&amp;D119</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2013 SUGIHWARAS</v>
       </c>
       <c r="D119" s="3" t="s">
@@ -7310,14 +7309,14 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="5" t="s">
+      <c r="A120" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C120" s="3" t="str">
-        <f>E120&amp;" "&amp;D120</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2014 KEDUNGKENDO</v>
       </c>
       <c r="D120" s="3" t="s">
@@ -7328,14 +7327,14 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C121" s="3" t="str">
-        <f>E121&amp;" "&amp;D121</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2015 DURUNGBANJAR</v>
       </c>
       <c r="D121" s="3" t="s">
@@ -7346,14 +7345,14 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C122" s="3" t="str">
-        <f>E122&amp;" "&amp;D122</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2016 DURUNGBEDUG</v>
       </c>
       <c r="D122" s="3" t="s">
@@ -7364,14 +7363,14 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C123" s="3" t="str">
-        <f>E123&amp;" "&amp;D123</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2017 JAMBANGAN</v>
       </c>
       <c r="D123" s="3" t="s">
@@ -7382,14 +7381,14 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C124" s="3" t="str">
-        <f>E124&amp;" "&amp;D124</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2018 SIDODADI</v>
       </c>
       <c r="D124" s="3" t="s">
@@ -7400,14 +7399,14 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C125" s="3" t="str">
-        <f>E125&amp;" "&amp;D125</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2019 SEPANDE</v>
       </c>
       <c r="D125" s="3" t="s">
@@ -7418,14 +7417,14 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="5" t="s">
+      <c r="A126" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C126" s="3" t="str">
-        <f>E126&amp;" "&amp;D126</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2020 SUMOKALI</v>
       </c>
       <c r="D126" s="3" t="s">
@@ -7436,14 +7435,14 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="5" t="s">
+      <c r="A127" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C127" s="3" t="str">
-        <f>E127&amp;" "&amp;D127</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2021 TENGGULUNAN</v>
       </c>
       <c r="D127" s="3" t="s">
@@ -7454,14 +7453,14 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C128" s="3" t="str">
-        <f>E128&amp;" "&amp;D128</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2022 BLIGO</v>
       </c>
       <c r="D128" s="3" t="s">
@@ -7472,14 +7471,14 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C129" s="3" t="str">
-        <f>E129&amp;" "&amp;D129</f>
+        <f t="shared" si="1"/>
         <v>35.15.07.2023 WEDOROKLURAK</v>
       </c>
       <c r="D129" s="3" t="s">
@@ -7490,14 +7489,14 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>801</v>
       </c>
       <c r="C130" s="3" t="str">
-        <f>E130&amp;" "&amp;D130</f>
+        <f t="shared" ref="C130:C193" si="2">E130&amp;" "&amp;D130</f>
         <v>35.15.07.2024 LARANGAN</v>
       </c>
       <c r="D130" s="3" t="s">
@@ -7508,14 +7507,14 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f>E131&amp;" "&amp;D131</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1004 SIDOKARE</v>
       </c>
       <c r="D131" s="3" t="s">
@@ -7526,14 +7525,14 @@
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="5" t="s">
+      <c r="A132" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C132" s="3" t="str">
-        <f>E132&amp;" "&amp;D132</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1005 CELEP</v>
       </c>
       <c r="D132" s="3" t="s">
@@ -7544,14 +7543,14 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="5" t="s">
+      <c r="A133" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C133" s="3" t="str">
-        <f>E133&amp;" "&amp;D133</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1006 SEKARDANGAN</v>
       </c>
       <c r="D133" s="3" t="s">
@@ -7562,14 +7561,14 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C134" s="3" t="str">
-        <f>E134&amp;" "&amp;D134</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1007 GEBANG</v>
       </c>
       <c r="D134" s="3" t="s">
@@ -7580,14 +7579,14 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="5" t="s">
+      <c r="A135" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C135" s="3" t="str">
-        <f>E135&amp;" "&amp;D135</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1009 BULUSIDOKARE</v>
       </c>
       <c r="D135" s="3" t="s">
@@ -7598,14 +7597,14 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="5" t="s">
+      <c r="A136" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C136" s="3" t="str">
-        <f>E136&amp;" "&amp;D136</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1010 PUCANGANOM</v>
       </c>
       <c r="D136" s="3" t="s">
@@ -7616,14 +7615,14 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="5" t="s">
+      <c r="A137" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C137" s="3" t="str">
-        <f>E137&amp;" "&amp;D137</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1011 PEKAUMAN</v>
       </c>
       <c r="D137" s="3" t="s">
@@ -7634,14 +7633,14 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C138" s="3" t="str">
-        <f>E138&amp;" "&amp;D138</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1012 LEMAHPUTRO</v>
       </c>
       <c r="D138" s="3" t="s">
@@ -7652,14 +7651,14 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C139" s="3" t="str">
-        <f>E139&amp;" "&amp;D139</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1013 SIDOKUMPUL</v>
       </c>
       <c r="D139" s="3" t="s">
@@ -7670,14 +7669,14 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="5" t="s">
+      <c r="A140" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C140" s="3" t="str">
-        <f>E140&amp;" "&amp;D140</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1014 SIDOKLUMPUK</v>
       </c>
       <c r="D140" s="3" t="s">
@@ -7688,14 +7687,14 @@
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
+      <c r="A141" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C141" s="3" t="str">
-        <f>E141&amp;" "&amp;D141</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1017 PUCANG</v>
       </c>
       <c r="D141" s="3" t="s">
@@ -7706,14 +7705,14 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C142" s="3" t="str">
-        <f>E142&amp;" "&amp;D142</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1018 MAGERSARI</v>
       </c>
       <c r="D142" s="3" t="s">
@@ -7724,14 +7723,14 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
+      <c r="A143" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C143" s="3" t="str">
-        <f>E143&amp;" "&amp;D143</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1020 CEMENGKALANG</v>
       </c>
       <c r="D143" s="3" t="s">
@@ -7742,14 +7741,14 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C144" s="3" t="str">
-        <f>E144&amp;" "&amp;D144</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.1022 URANGAGUNG</v>
       </c>
       <c r="D144" s="3" t="s">
@@ -7760,14 +7759,14 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C145" s="3" t="str">
-        <f>E145&amp;" "&amp;D145</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2001 LEBO</v>
       </c>
       <c r="D145" s="3" t="s">
@@ -7778,14 +7777,14 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="5" t="s">
+      <c r="A146" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C146" s="3" t="str">
-        <f>E146&amp;" "&amp;D146</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2002 SUKO</v>
       </c>
       <c r="D146" s="3" t="s">
@@ -7796,14 +7795,14 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="5" t="s">
+      <c r="A147" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C147" s="3" t="str">
-        <f>E147&amp;" "&amp;D147</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2003 BANJARBENDO</v>
       </c>
       <c r="D147" s="3" t="s">
@@ -7814,14 +7813,14 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C148" s="3" t="str">
-        <f>E148&amp;" "&amp;D148</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2008 RANGKAHKIDUL</v>
       </c>
       <c r="D148" s="3" t="s">
@@ -7832,14 +7831,14 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="5" t="s">
+      <c r="A149" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C149" s="3" t="str">
-        <f>E149&amp;" "&amp;D149</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2015 BLURUKIDUL</v>
       </c>
       <c r="D149" s="3" t="s">
@@ -7850,14 +7849,14 @@
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C150" s="3" t="str">
-        <f>E150&amp;" "&amp;D150</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2016 KEMIRI</v>
       </c>
       <c r="D150" s="3" t="s">
@@ -7868,14 +7867,14 @@
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="5" t="s">
+      <c r="A151" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C151" s="3" t="str">
-        <f>E151&amp;" "&amp;D151</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2019 JATI</v>
       </c>
       <c r="D151" s="3" t="s">
@@ -7886,14 +7885,14 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C152" s="3" t="str">
-        <f>E152&amp;" "&amp;D152</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2021 CEMENGBAKALAN</v>
       </c>
       <c r="D152" s="3" t="s">
@@ -7904,14 +7903,14 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C153" s="3" t="str">
-        <f>E153&amp;" "&amp;D153</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2023 SARIROGO</v>
       </c>
       <c r="D153" s="3" t="s">
@@ -7922,14 +7921,14 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
+      <c r="A154" s="3" t="s">
         <v>99</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>802</v>
       </c>
       <c r="C154" s="3" t="str">
-        <f>E154&amp;" "&amp;D154</f>
+        <f t="shared" si="2"/>
         <v>35.15.08.2024 SUMPUT</v>
       </c>
       <c r="D154" s="3" t="s">
@@ -7940,14 +7939,14 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C155" s="3" t="str">
-        <f>E155&amp;" "&amp;D155</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2001 JANTI</v>
       </c>
       <c r="D155" s="3" t="s">
@@ -7958,14 +7957,14 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C156" s="3" t="str">
-        <f>E156&amp;" "&amp;D156</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2002 KEBARON</v>
       </c>
       <c r="D156" s="3" t="s">
@@ -7976,14 +7975,14 @@
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="5" t="s">
+      <c r="A157" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C157" s="3" t="str">
-        <f>E157&amp;" "&amp;D157</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2003 KENONGO</v>
       </c>
       <c r="D157" s="3" t="s">
@@ -7994,14 +7993,14 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="5" t="s">
+      <c r="A158" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C158" s="3" t="str">
-        <f>E158&amp;" "&amp;D158</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2004 GELANG</v>
       </c>
       <c r="D158" s="3" t="s">
@@ -8012,14 +8011,14 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C159" s="3" t="str">
-        <f>E159&amp;" "&amp;D159</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2005 JIKEN</v>
       </c>
       <c r="D159" s="3" t="s">
@@ -8030,14 +8029,14 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C160" s="3" t="str">
-        <f>E160&amp;" "&amp;D160</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2006 PANGKEMIRI</v>
       </c>
       <c r="D160" s="3" t="s">
@@ -8048,14 +8047,14 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="5" t="s">
+      <c r="A161" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C161" s="3" t="str">
-        <f>E161&amp;" "&amp;D161</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2007 KEPATIHAN</v>
       </c>
       <c r="D161" s="3" t="s">
@@ -8066,14 +8065,14 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C162" s="3" t="str">
-        <f>E162&amp;" "&amp;D162</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2008 TULANGAN</v>
       </c>
       <c r="D162" s="3" t="s">
@@ -8084,14 +8083,14 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="5" t="s">
+      <c r="A163" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C163" s="3" t="str">
-        <f>E163&amp;" "&amp;D163</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2009 KEPADANGAN</v>
       </c>
       <c r="D163" s="3" t="s">
@@ -8102,14 +8101,14 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C164" s="3" t="str">
-        <f>E164&amp;" "&amp;D164</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2010 TLASIH</v>
       </c>
       <c r="D164" s="3" t="s">
@@ -8120,14 +8119,14 @@
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C165" s="3" t="str">
-        <f>E165&amp;" "&amp;D165</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2011 KAJEKSAN</v>
       </c>
       <c r="D165" s="3" t="s">
@@ -8138,14 +8137,14 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C166" s="3" t="str">
-        <f>E166&amp;" "&amp;D166</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2012 SINGOPADU</v>
       </c>
       <c r="D166" s="3" t="s">
@@ -8156,14 +8155,14 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C167" s="3" t="str">
-        <f>E167&amp;" "&amp;D167</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2013 KEMANTREN</v>
       </c>
       <c r="D167" s="3" t="s">
@@ -8174,14 +8173,14 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C168" s="3" t="str">
-        <f>E168&amp;" "&amp;D168</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2014 KEPUNTEN</v>
       </c>
       <c r="D168" s="3" t="s">
@@ -8192,14 +8191,14 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C169" s="3" t="str">
-        <f>E169&amp;" "&amp;D169</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2015 KEPUHKEMIRI</v>
       </c>
       <c r="D169" s="3" t="s">
@@ -8210,14 +8209,14 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="5" t="s">
+      <c r="A170" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C170" s="3" t="str">
-        <f>E170&amp;" "&amp;D170</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2016 GRINTING</v>
       </c>
       <c r="D170" s="3" t="s">
@@ -8228,14 +8227,14 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="5" t="s">
+      <c r="A171" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C171" s="3" t="str">
-        <f>E171&amp;" "&amp;D171</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2017 MODONG</v>
       </c>
       <c r="D171" s="3" t="s">
@@ -8246,14 +8245,14 @@
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="5" t="s">
+      <c r="A172" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C172" s="3" t="str">
-        <f>E172&amp;" "&amp;D172</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2018 GROGOL</v>
       </c>
       <c r="D172" s="3" t="s">
@@ -8264,14 +8263,14 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C173" s="3" t="str">
-        <f>E173&amp;" "&amp;D173</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2019 MEDALEM</v>
       </c>
       <c r="D173" s="3" t="s">
@@ -8282,14 +8281,14 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="5" t="s">
+      <c r="A174" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C174" s="3" t="str">
-        <f>E174&amp;" "&amp;D174</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2020 SUDIMORO</v>
       </c>
       <c r="D174" s="3" t="s">
@@ -8300,14 +8299,14 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C175" s="3" t="str">
-        <f>E175&amp;" "&amp;D175</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2021 KEDONDONG</v>
       </c>
       <c r="D175" s="3" t="s">
@@ -8318,14 +8317,14 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>803</v>
       </c>
       <c r="C176" s="3" t="str">
-        <f>E176&amp;" "&amp;D176</f>
+        <f t="shared" si="2"/>
         <v>35.15.09.2022 GRABAGAN</v>
       </c>
       <c r="D176" s="3" t="s">
@@ -8336,14 +8335,14 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="5" t="s">
+      <c r="A177" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C177" s="3" t="str">
-        <f>E177&amp;" "&amp;D177</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2001 TANGGUL</v>
       </c>
       <c r="D177" s="3" t="s">
@@ -8354,14 +8353,14 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="5" t="s">
+      <c r="A178" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C178" s="3" t="str">
-        <f>E178&amp;" "&amp;D178</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2002 SIMOKETAWANG</v>
       </c>
       <c r="D178" s="3" t="s">
@@ -8372,14 +8371,14 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C179" s="3" t="str">
-        <f>E179&amp;" "&amp;D179</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2003 POPOH</v>
       </c>
       <c r="D179" s="3" t="s">
@@ -8390,14 +8389,14 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="5" t="s">
+      <c r="A180" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C180" s="3" t="str">
-        <f>E180&amp;" "&amp;D180</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2004 JIMBARANKULON</v>
       </c>
       <c r="D180" s="3" t="s">
@@ -8408,14 +8407,14 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="5" t="s">
+      <c r="A181" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C181" s="3" t="str">
-        <f>E181&amp;" "&amp;D181</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2005 JIMBARANWETAN</v>
       </c>
       <c r="D181" s="3" t="s">
@@ -8426,14 +8425,14 @@
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C182" s="3" t="str">
-        <f>E182&amp;" "&amp;D182</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2006 KETIMANG</v>
       </c>
       <c r="D182" s="3" t="s">
@@ -8444,14 +8443,14 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="5" t="s">
+      <c r="A183" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C183" s="3" t="str">
-        <f>E183&amp;" "&amp;D183</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2007 PILANG</v>
       </c>
       <c r="D183" s="3" t="s">
@@ -8462,14 +8461,14 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="5" t="s">
+      <c r="A184" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C184" s="3" t="str">
-        <f>E184&amp;" "&amp;D184</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2008 SUMBEREJO</v>
       </c>
       <c r="D184" s="3" t="s">
@@ -8480,14 +8479,14 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C185" s="3" t="str">
-        <f>E185&amp;" "&amp;D185</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2009 MOJORANGAGUNG</v>
       </c>
       <c r="D185" s="3" t="s">
@@ -8498,14 +8497,14 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C186" s="3" t="str">
-        <f>E186&amp;" "&amp;D186</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2010 WONOKASIAN</v>
       </c>
       <c r="D186" s="3" t="s">
@@ -8516,14 +8515,14 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="5" t="s">
+      <c r="A187" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C187" s="3" t="str">
-        <f>E187&amp;" "&amp;D187</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2011 PLOSO</v>
       </c>
       <c r="D187" s="3" t="s">
@@ -8534,14 +8533,14 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C188" s="3" t="str">
-        <f>E188&amp;" "&amp;D188</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2012 MULYODADI</v>
       </c>
       <c r="D188" s="3" t="s">
@@ -8552,14 +8551,14 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C189" s="3" t="str">
-        <f>E189&amp;" "&amp;D189</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2013 WONOAYU</v>
       </c>
       <c r="D189" s="3" t="s">
@@ -8570,14 +8569,14 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="5" t="s">
+      <c r="A190" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C190" s="3" t="str">
-        <f>E190&amp;" "&amp;D190</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2014 SEMAMBUNG</v>
       </c>
       <c r="D190" s="3" t="s">
@@ -8588,14 +8587,14 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="5" t="s">
+      <c r="A191" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C191" s="3" t="str">
-        <f>E191&amp;" "&amp;D191</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2015 SIMOANGIN-ANGIN</v>
       </c>
       <c r="D191" s="3" t="s">
@@ -8606,14 +8605,14 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="5" t="s">
+      <c r="A192" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C192" s="3" t="str">
-        <f>E192&amp;" "&amp;D192</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2016 WONOKALANG</v>
       </c>
       <c r="D192" s="3" t="s">
@@ -8624,14 +8623,14 @@
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="5" t="s">
+      <c r="A193" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C193" s="3" t="str">
-        <f>E193&amp;" "&amp;D193</f>
+        <f t="shared" si="2"/>
         <v>35.15.10.2017 PAGERNGUMBUK</v>
       </c>
       <c r="D193" s="3" t="s">
@@ -8642,14 +8641,14 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C194" s="3" t="str">
-        <f>E194&amp;" "&amp;D194</f>
+        <f t="shared" ref="C194:C257" si="3">E194&amp;" "&amp;D194</f>
         <v>35.15.10.2018 PLAOSAN</v>
       </c>
       <c r="D194" s="3" t="s">
@@ -8660,14 +8659,14 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="5" t="s">
+      <c r="A195" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C195" s="3" t="str">
-        <f>E195&amp;" "&amp;D195</f>
+        <f t="shared" si="3"/>
         <v>35.15.10.2019 LAMBANGAN</v>
       </c>
       <c r="D195" s="3" t="s">
@@ -8678,14 +8677,14 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="5" t="s">
+      <c r="A196" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C196" s="3" t="str">
-        <f>E196&amp;" "&amp;D196</f>
+        <f t="shared" si="3"/>
         <v>35.15.10.2020 SAWOCANGKRING</v>
       </c>
       <c r="D196" s="3" t="s">
@@ -8696,14 +8695,14 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C197" s="3" t="str">
-        <f>E197&amp;" "&amp;D197</f>
+        <f t="shared" si="3"/>
         <v>35.15.10.2021 BECIRONGENGOR</v>
       </c>
       <c r="D197" s="3" t="s">
@@ -8714,14 +8713,14 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C198" s="3" t="str">
-        <f>E198&amp;" "&amp;D198</f>
+        <f t="shared" si="3"/>
         <v>35.15.10.2022 KARANGPURI</v>
       </c>
       <c r="D198" s="3" t="s">
@@ -8732,14 +8731,14 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="3" t="s">
         <v>101</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>804</v>
       </c>
       <c r="C199" s="3" t="str">
-        <f>E199&amp;" "&amp;D199</f>
+        <f t="shared" si="3"/>
         <v>35.15.10.2023 CANDINEGORO</v>
       </c>
       <c r="D199" s="3" t="s">
@@ -8750,14 +8749,14 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="5" t="s">
+      <c r="A200" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C200" s="3" t="str">
-        <f>E200&amp;" "&amp;D200</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2001 KEMASAN</v>
       </c>
       <c r="D200" s="3" t="s">
@@ -8768,14 +8767,14 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="5" t="s">
+      <c r="A201" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C201" s="3" t="str">
-        <f>E201&amp;" "&amp;D201</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2002 TAMBAKKEMERAKAN</v>
       </c>
       <c r="D201" s="3" t="s">
@@ -8786,14 +8785,14 @@
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C202" s="3" t="str">
-        <f>E202&amp;" "&amp;D202</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2003 KRIAN</v>
       </c>
       <c r="D202" s="3" t="s">
@@ -8804,14 +8803,14 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="5" t="s">
+      <c r="A203" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C203" s="3" t="str">
-        <f>E203&amp;" "&amp;D203</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2004 TROPODO</v>
       </c>
       <c r="D203" s="3" t="s">
@@ -8822,14 +8821,14 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
+      <c r="A204" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C204" s="3" t="str">
-        <f>E204&amp;" "&amp;D204</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2005 SEDENGANMIJEN</v>
       </c>
       <c r="D204" s="3" t="s">
@@ -8840,14 +8839,14 @@
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C205" s="3" t="str">
-        <f>E205&amp;" "&amp;D205</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2006 KATERUNGAN</v>
       </c>
       <c r="D205" s="3" t="s">
@@ -8858,14 +8857,14 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
+      <c r="A206" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C206" s="3" t="str">
-        <f>E206&amp;" "&amp;D206</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2007 JERUKGAMPING</v>
       </c>
       <c r="D206" s="3" t="s">
@@ -8876,14 +8875,14 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
+      <c r="A207" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C207" s="3" t="str">
-        <f>E207&amp;" "&amp;D207</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2008 GAMPING</v>
       </c>
       <c r="D207" s="3" t="s">
@@ -8894,14 +8893,14 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C208" s="3" t="str">
-        <f>E208&amp;" "&amp;D208</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2009 TERIK</v>
       </c>
       <c r="D208" s="3" t="s">
@@ -8912,14 +8911,14 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C209" s="3" t="str">
-        <f>E209&amp;" "&amp;D209</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2010 JUNWANGI</v>
       </c>
       <c r="D209" s="3" t="s">
@@ -8930,14 +8929,14 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
+      <c r="A210" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C210" s="3" t="str">
-        <f>E210&amp;" "&amp;D210</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2011 TERUNGKULON</v>
       </c>
       <c r="D210" s="3" t="s">
@@ -8948,14 +8947,14 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
+      <c r="A211" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C211" s="3" t="str">
-        <f>E211&amp;" "&amp;D211</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2012 TERUNGWETAN</v>
       </c>
       <c r="D211" s="3" t="s">
@@ -8966,14 +8965,14 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C212" s="3" t="str">
-        <f>E212&amp;" "&amp;D212</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2013 JATIKALANG</v>
       </c>
       <c r="D212" s="3" t="s">
@@ -8984,14 +8983,14 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
+      <c r="A213" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C213" s="3" t="str">
-        <f>E213&amp;" "&amp;D213</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2014 KEBOHARAN</v>
       </c>
       <c r="D213" s="3" t="s">
@@ -9002,14 +9001,14 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C214" s="3" t="str">
-        <f>E214&amp;" "&amp;D214</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2015 PONOKAWAN</v>
       </c>
       <c r="D214" s="3" t="s">
@@ -9020,14 +9019,14 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C215" s="3" t="str">
-        <f>E215&amp;" "&amp;D215</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2016 SIDOMOJO</v>
       </c>
       <c r="D215" s="3" t="s">
@@ -9038,14 +9037,14 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="5" t="s">
+      <c r="A216" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C216" s="3" t="str">
-        <f>E216&amp;" "&amp;D216</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2017 KRATON</v>
       </c>
       <c r="D216" s="3" t="s">
@@ -9056,14 +9055,14 @@
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
+      <c r="A217" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C217" s="3" t="str">
-        <f>E217&amp;" "&amp;D217</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2018 SIDOMULYO</v>
       </c>
       <c r="D217" s="3" t="s">
@@ -9074,14 +9073,14 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C218" s="3" t="str">
-        <f>E218&amp;" "&amp;D218</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2019 TEMPEL</v>
       </c>
       <c r="D218" s="3" t="s">
@@ -9092,14 +9091,14 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="5" t="s">
+      <c r="A219" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C219" s="3" t="str">
-        <f>E219&amp;" "&amp;D219</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2020 WATUGOLONG</v>
       </c>
       <c r="D219" s="3" t="s">
@@ -9110,14 +9109,14 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="5" t="s">
+      <c r="A220" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C220" s="3" t="str">
-        <f>E220&amp;" "&amp;D220</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2021 BARENGKRAJAN</v>
       </c>
       <c r="D220" s="3" t="s">
@@ -9128,14 +9127,14 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
+      <c r="A221" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>805</v>
       </c>
       <c r="C221" s="3" t="str">
-        <f>E221&amp;" "&amp;D221</f>
+        <f t="shared" si="3"/>
         <v>35.15.11.2022 SIDOREJO</v>
       </c>
       <c r="D221" s="3" t="s">
@@ -9146,14 +9145,14 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C222" s="3" t="str">
-        <f>E222&amp;" "&amp;D222</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2001 WONOKUPANG</v>
       </c>
       <c r="D222" s="3" t="s">
@@ -9164,14 +9163,14 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
+      <c r="A223" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C223" s="3" t="str">
-        <f>E223&amp;" "&amp;D223</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2002 SUMOKEMBANGSRI</v>
       </c>
       <c r="D223" s="3" t="s">
@@ -9182,14 +9181,14 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="s">
+      <c r="A224" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C224" s="3" t="str">
-        <f>E224&amp;" "&amp;D224</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2003 SINGKALAN</v>
       </c>
       <c r="D224" s="3" t="s">
@@ -9200,14 +9199,14 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C225" s="3" t="str">
-        <f>E225&amp;" "&amp;D225</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2004 BAKUNGPRINGGODANI</v>
       </c>
       <c r="D225" s="3" t="s">
@@ -9218,14 +9217,14 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C226" s="3" t="str">
-        <f>E226&amp;" "&amp;D226</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2005 WONOKARANG</v>
       </c>
       <c r="D226" s="3" t="s">
@@ -9236,14 +9235,14 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C227" s="3" t="str">
-        <f>E227&amp;" "&amp;D227</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2006 SEDURI</v>
       </c>
       <c r="D227" s="3" t="s">
@@ -9254,14 +9253,14 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C228" s="3" t="str">
-        <f>E228&amp;" "&amp;D228</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2007 BAKALANWRINGINPITU</v>
       </c>
       <c r="D228" s="3" t="s">
@@ -9272,14 +9271,14 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="5" t="s">
+      <c r="A229" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C229" s="3" t="str">
-        <f>E229&amp;" "&amp;D229</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2008 GAGANGKEPUHSARI</v>
       </c>
       <c r="D229" s="3" t="s">
@@ -9290,14 +9289,14 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="5" t="s">
+      <c r="A230" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C230" s="3" t="str">
-        <f>E230&amp;" "&amp;D230</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2009 SUWALUH</v>
       </c>
       <c r="D230" s="3" t="s">
@@ -9308,14 +9307,14 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B231" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C231" s="3" t="str">
-        <f>E231&amp;" "&amp;D231</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2010 WATESARI</v>
       </c>
       <c r="D231" s="3" t="s">
@@ -9326,14 +9325,14 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="5" t="s">
+      <c r="A232" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B232" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C232" s="3" t="str">
-        <f>E232&amp;" "&amp;D232</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2011 SEKETI</v>
       </c>
       <c r="D232" s="3" t="s">
@@ -9344,14 +9343,14 @@
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="5" t="s">
+      <c r="A233" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B233" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C233" s="3" t="str">
-        <f>E233&amp;" "&amp;D233</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2012 KEMANGSEN</v>
       </c>
       <c r="D233" s="3" t="s">
@@ -9362,14 +9361,14 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B234" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C234" s="3" t="str">
-        <f>E234&amp;" "&amp;D234</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2013 JABARAN</v>
       </c>
       <c r="D234" s="3" t="s">
@@ -9380,14 +9379,14 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="5" t="s">
+      <c r="A235" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B235" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C235" s="3" t="str">
-        <f>E235&amp;" "&amp;D235</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2014 BALONGBENDO</v>
       </c>
       <c r="D235" s="3" t="s">
@@ -9398,14 +9397,14 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B236" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C236" s="3" t="str">
-        <f>E236&amp;" "&amp;D236</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2015 JERUKLEGI</v>
       </c>
       <c r="D236" s="3" t="s">
@@ -9416,14 +9415,14 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B237" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C237" s="3" t="str">
-        <f>E237&amp;" "&amp;D237</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2016 PENAMBANGAN</v>
       </c>
       <c r="D237" s="3" t="s">
@@ -9434,14 +9433,14 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="5" t="s">
+      <c r="A238" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B238" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C238" s="3" t="str">
-        <f>E238&amp;" "&amp;D238</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2017 WARUBERON</v>
       </c>
       <c r="D238" s="3" t="s">
@@ -9452,14 +9451,14 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="5" t="s">
+      <c r="A239" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B239" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C239" s="3" t="str">
-        <f>E239&amp;" "&amp;D239</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2018 BOGEMPINGGIR</v>
       </c>
       <c r="D239" s="3" t="s">
@@ -9470,14 +9469,14 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B240" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C240" s="3" t="str">
-        <f>E240&amp;" "&amp;D240</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2019 KEDUNGSUKODANI</v>
       </c>
       <c r="D240" s="3" t="s">
@@ -9488,14 +9487,14 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="5" t="s">
+      <c r="A241" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>806</v>
       </c>
       <c r="C241" s="3" t="str">
-        <f>E241&amp;" "&amp;D241</f>
+        <f t="shared" si="3"/>
         <v>35.15.12.2020 BAKUNGTEMENGGUNGAN</v>
       </c>
       <c r="D241" s="3" t="s">
@@ -9506,14 +9505,14 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="5" t="s">
+      <c r="A242" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B242" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C242" s="3" t="str">
-        <f>E242&amp;" "&amp;D242</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.1005 TAMAN</v>
       </c>
       <c r="D242" s="3" t="s">
@@ -9524,14 +9523,14 @@
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="5" t="s">
+      <c r="A243" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B243" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C243" s="3" t="str">
-        <f>E243&amp;" "&amp;D243</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.1015 GELURAN</v>
       </c>
       <c r="D243" s="3" t="s">
@@ -9542,14 +9541,14 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="5" t="s">
+      <c r="A244" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B244" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C244" s="3" t="str">
-        <f>E244&amp;" "&amp;D244</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.1017 KALIJATEN</v>
       </c>
       <c r="D244" s="3" t="s">
@@ -9560,14 +9559,14 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B245" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C245" s="3" t="str">
-        <f>E245&amp;" "&amp;D245</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.1018 KETEGAN</v>
       </c>
       <c r="D245" s="3" t="s">
@@ -9578,14 +9577,14 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="5" t="s">
+      <c r="A246" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B246" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C246" s="3" t="str">
-        <f>E246&amp;" "&amp;D246</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.1019 SEPANJANG</v>
       </c>
       <c r="D246" s="3" t="s">
@@ -9596,14 +9595,14 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="5" t="s">
+      <c r="A247" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B247" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C247" s="3" t="str">
-        <f>E247&amp;" "&amp;D247</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.1020 BEBEKAN</v>
       </c>
       <c r="D247" s="3" t="s">
@@ -9614,14 +9613,14 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="5" t="s">
+      <c r="A248" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B248" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C248" s="3" t="str">
-        <f>E248&amp;" "&amp;D248</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.1021 WONOCOLO</v>
       </c>
       <c r="D248" s="3" t="s">
@@ -9632,14 +9631,14 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="5" t="s">
+      <c r="A249" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B249" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C249" s="3" t="str">
-        <f>E249&amp;" "&amp;D249</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.1022 NGELOM</v>
       </c>
       <c r="D249" s="3" t="s">
@@ -9650,14 +9649,14 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="5" t="s">
+      <c r="A250" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B250" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C250" s="3" t="str">
-        <f>E250&amp;" "&amp;D250</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.2001 BOHAR</v>
       </c>
       <c r="D250" s="3" t="s">
@@ -9668,14 +9667,14 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="5" t="s">
+      <c r="A251" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B251" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C251" s="3" t="str">
-        <f>E251&amp;" "&amp;D251</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.2002 WAGE</v>
       </c>
       <c r="D251" s="3" t="s">
@@ -9686,14 +9685,14 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="5" t="s">
+      <c r="A252" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B252" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C252" s="3" t="str">
-        <f>E252&amp;" "&amp;D252</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.2003 KEDUNGTURI</v>
       </c>
       <c r="D252" s="3" t="s">
@@ -9704,14 +9703,14 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="5" t="s">
+      <c r="A253" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B253" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C253" s="3" t="str">
-        <f>E253&amp;" "&amp;D253</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.2004 JEMUNDO</v>
       </c>
       <c r="D253" s="3" t="s">
@@ -9722,14 +9721,14 @@
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="5" t="s">
+      <c r="A254" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B254" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C254" s="3" t="str">
-        <f>E254&amp;" "&amp;D254</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.2006 SADANG</v>
       </c>
       <c r="D254" s="3" t="s">
@@ -9740,14 +9739,14 @@
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="5" t="s">
+      <c r="A255" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B255" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C255" s="3" t="str">
-        <f>E255&amp;" "&amp;D255</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.2007 SAMBIBULU</v>
       </c>
       <c r="D255" s="3" t="s">
@@ -9758,14 +9757,14 @@
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="5" t="s">
+      <c r="A256" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B256" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C256" s="3" t="str">
-        <f>E256&amp;" "&amp;D256</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.2008 BRINGINBENDO</v>
       </c>
       <c r="D256" s="3" t="s">
@@ -9776,14 +9775,14 @@
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="5" t="s">
+      <c r="A257" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B257" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C257" s="3" t="str">
-        <f>E257&amp;" "&amp;D257</f>
+        <f t="shared" si="3"/>
         <v>35.15.13.2009 SIDODADI</v>
       </c>
       <c r="D257" s="3" t="s">
@@ -9794,14 +9793,14 @@
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A258" s="5" t="s">
+      <c r="A258" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B258" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C258" s="3" t="str">
-        <f>E258&amp;" "&amp;D258</f>
+        <f t="shared" ref="C258:C321" si="4">E258&amp;" "&amp;D258</f>
         <v>35.15.13.2010 KRAMATJEGU</v>
       </c>
       <c r="D258" s="3" t="s">
@@ -9812,14 +9811,14 @@
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A259" s="5" t="s">
+      <c r="A259" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B259" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C259" s="3" t="str">
-        <f>E259&amp;" "&amp;D259</f>
+        <f t="shared" si="4"/>
         <v>35.15.13.2011 TROSOBO</v>
       </c>
       <c r="D259" s="3" t="s">
@@ -9830,14 +9829,14 @@
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="5" t="s">
+      <c r="A260" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B260" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C260" s="3" t="str">
-        <f>E260&amp;" "&amp;D260</f>
+        <f t="shared" si="4"/>
         <v>35.15.13.2012 PERTAPANMADURETNO</v>
       </c>
       <c r="D260" s="3" t="s">
@@ -9848,14 +9847,14 @@
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="5" t="s">
+      <c r="A261" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B261" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C261" s="3" t="str">
-        <f>E261&amp;" "&amp;D261</f>
+        <f t="shared" si="4"/>
         <v>35.15.13.2013 TAWANGSARI</v>
       </c>
       <c r="D261" s="3" t="s">
@@ -9866,14 +9865,14 @@
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A262" s="5" t="s">
+      <c r="A262" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B262" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C262" s="3" t="str">
-        <f>E262&amp;" "&amp;D262</f>
+        <f t="shared" si="4"/>
         <v>35.15.13.2014 GILANG</v>
       </c>
       <c r="D262" s="3" t="s">
@@ -9884,14 +9883,14 @@
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="5" t="s">
+      <c r="A263" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B263" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C263" s="3" t="str">
-        <f>E263&amp;" "&amp;D263</f>
+        <f t="shared" si="4"/>
         <v>35.15.13.2016 KLETEK</v>
       </c>
       <c r="D263" s="3" t="s">
@@ -9902,14 +9901,14 @@
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A264" s="5" t="s">
+      <c r="A264" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B264" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C264" s="3" t="str">
-        <f>E264&amp;" "&amp;D264</f>
+        <f t="shared" si="4"/>
         <v>35.15.13.2023 TANJUNGSARI</v>
       </c>
       <c r="D264" s="3" t="s">
@@ -9920,14 +9919,14 @@
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="5" t="s">
+      <c r="A265" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B265" s="3" t="s">
         <v>807</v>
       </c>
       <c r="C265" s="3" t="str">
-        <f>E265&amp;" "&amp;D265</f>
+        <f t="shared" si="4"/>
         <v>35.15.13.2024 KREMBANGAN</v>
       </c>
       <c r="D265" s="3" t="s">
@@ -9938,14 +9937,14 @@
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A266" s="5" t="s">
+      <c r="A266" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B266" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C266" s="3" t="str">
-        <f>E266&amp;" "&amp;D266</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2001 WILAYUT</v>
       </c>
       <c r="D266" s="3" t="s">
@@ -9956,14 +9955,14 @@
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A267" s="5" t="s">
+      <c r="A267" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B267" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C267" s="3" t="str">
-        <f>E267&amp;" "&amp;D267</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2002 KEBONAGUNG</v>
       </c>
       <c r="D267" s="3" t="s">
@@ -9974,14 +9973,14 @@
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A268" s="5" t="s">
+      <c r="A268" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B268" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C268" s="3" t="str">
-        <f>E268&amp;" "&amp;D268</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2003 ANGGASWANGI</v>
       </c>
       <c r="D268" s="3" t="s">
@@ -9992,14 +9991,14 @@
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="5" t="s">
+      <c r="A269" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B269" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C269" s="3" t="str">
-        <f>E269&amp;" "&amp;D269</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2004 JUMPUTREJO</v>
       </c>
       <c r="D269" s="3" t="s">
@@ -10010,14 +10009,14 @@
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A270" s="5" t="s">
+      <c r="A270" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B270" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C270" s="3" t="str">
-        <f>E270&amp;" "&amp;D270</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2005 SURUH</v>
       </c>
       <c r="D270" s="3" t="s">
@@ -10028,14 +10027,14 @@
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="5" t="s">
+      <c r="A271" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B271" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C271" s="3" t="str">
-        <f>E271&amp;" "&amp;D271</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2006 PEKARUNGAN</v>
       </c>
       <c r="D271" s="3" t="s">
@@ -10046,14 +10045,14 @@
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A272" s="5" t="s">
+      <c r="A272" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B272" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C272" s="3" t="str">
-        <f>E272&amp;" "&amp;D272</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2007 PADEMONEGORO</v>
       </c>
       <c r="D272" s="3" t="s">
@@ -10064,14 +10063,14 @@
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="5" t="s">
+      <c r="A273" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B273" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C273" s="3" t="str">
-        <f>E273&amp;" "&amp;D273</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2008 CANGKRINGSARI</v>
       </c>
       <c r="D273" s="3" t="s">
@@ -10082,14 +10081,14 @@
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="5" t="s">
+      <c r="A274" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B274" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C274" s="3" t="str">
-        <f>E274&amp;" "&amp;D274</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2009 JOGOSATRU</v>
       </c>
       <c r="D274" s="3" t="s">
@@ -10100,14 +10099,14 @@
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="5" t="s">
+      <c r="A275" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B275" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C275" s="3" t="str">
-        <f>E275&amp;" "&amp;D275</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2010 NGARESREJO</v>
       </c>
       <c r="D275" s="3" t="s">
@@ -10118,14 +10117,14 @@
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="5" t="s">
+      <c r="A276" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B276" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C276" s="3" t="str">
-        <f>E276&amp;" "&amp;D276</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2011 SAMBUNGREJO</v>
       </c>
       <c r="D276" s="3" t="s">
@@ -10136,14 +10135,14 @@
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="5" t="s">
+      <c r="A277" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C277" s="3" t="str">
-        <f>E277&amp;" "&amp;D277</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2012 PLUMBUNGAN</v>
       </c>
       <c r="D277" s="3" t="s">
@@ -10154,14 +10153,14 @@
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A278" s="5" t="s">
+      <c r="A278" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B278" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C278" s="3" t="str">
-        <f>E278&amp;" "&amp;D278</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2013 SUKODONO</v>
       </c>
       <c r="D278" s="3" t="s">
@@ -10172,14 +10171,14 @@
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A279" s="5" t="s">
+      <c r="A279" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B279" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C279" s="3" t="str">
-        <f>E279&amp;" "&amp;D279</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2014 KLOPOSEPULUH</v>
       </c>
       <c r="D279" s="3" t="s">
@@ -10190,14 +10189,14 @@
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A280" s="5" t="s">
+      <c r="A280" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B280" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C280" s="3" t="str">
-        <f>E280&amp;" "&amp;D280</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2015 MASANGANWETAN</v>
       </c>
       <c r="D280" s="3" t="s">
@@ -10208,14 +10207,14 @@
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="5" t="s">
+      <c r="A281" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B281" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C281" s="3" t="str">
-        <f>E281&amp;" "&amp;D281</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2016 SUKO</v>
       </c>
       <c r="D281" s="3" t="s">
@@ -10226,14 +10225,14 @@
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="5" t="s">
+      <c r="A282" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B282" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C282" s="3" t="str">
-        <f>E282&amp;" "&amp;D282</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2017 MASANGANKULON</v>
       </c>
       <c r="D282" s="3" t="s">
@@ -10244,14 +10243,14 @@
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="5" t="s">
+      <c r="A283" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B283" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C283" s="3" t="str">
-        <f>E283&amp;" "&amp;D283</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2018 PANJUNAN</v>
       </c>
       <c r="D283" s="3" t="s">
@@ -10262,14 +10261,14 @@
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="5" t="s">
+      <c r="A284" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B284" s="3" t="s">
         <v>795</v>
       </c>
       <c r="C284" s="3" t="str">
-        <f>E284&amp;" "&amp;D284</f>
+        <f t="shared" si="4"/>
         <v>35.15.14.2019 BANGSRI</v>
       </c>
       <c r="D284" s="3" t="s">
@@ -10280,14 +10279,14 @@
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A285" s="5" t="s">
+      <c r="A285" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B285" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C285" s="3" t="str">
-        <f>E285&amp;" "&amp;D285</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2001 ENTALSEWU</v>
       </c>
       <c r="D285" s="3" t="s">
@@ -10298,14 +10297,14 @@
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A286" s="5" t="s">
+      <c r="A286" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B286" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C286" s="3" t="str">
-        <f>E286&amp;" "&amp;D286</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2002 PAGERWOJO</v>
       </c>
       <c r="D286" s="3" t="s">
@@ -10316,14 +10315,14 @@
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="5" t="s">
+      <c r="A287" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B287" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C287" s="3" t="str">
-        <f>E287&amp;" "&amp;D287</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2003 SIDOKERTO</v>
       </c>
       <c r="D287" s="3" t="s">
@@ -10334,14 +10333,14 @@
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="5" t="s">
+      <c r="A288" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B288" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C288" s="3" t="str">
-        <f>E288&amp;" "&amp;D288</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2004 BUDURAN</v>
       </c>
       <c r="D288" s="3" t="s">
@@ -10352,14 +10351,14 @@
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="5" t="s">
+      <c r="A289" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B289" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C289" s="3" t="str">
-        <f>E289&amp;" "&amp;D289</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2005 SIWALANPANJI</v>
       </c>
       <c r="D289" s="3" t="s">
@@ -10370,14 +10369,14 @@
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A290" s="5" t="s">
+      <c r="A290" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B290" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C290" s="3" t="str">
-        <f>E290&amp;" "&amp;D290</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2006 SIDOMULYO</v>
       </c>
       <c r="D290" s="3" t="s">
@@ -10388,14 +10387,14 @@
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A291" s="5" t="s">
+      <c r="A291" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B291" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C291" s="3" t="str">
-        <f>E291&amp;" "&amp;D291</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2007 PRASUNG</v>
       </c>
       <c r="D291" s="3" t="s">
@@ -10406,14 +10405,14 @@
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="5" t="s">
+      <c r="A292" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C292" s="3" t="str">
-        <f>E292&amp;" "&amp;D292</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2008 SAWOHAN</v>
       </c>
       <c r="D292" s="3" t="s">
@@ -10424,14 +10423,14 @@
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="5" t="s">
+      <c r="A293" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B293" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C293" s="3" t="str">
-        <f>E293&amp;" "&amp;D293</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2009 DAMARSI</v>
       </c>
       <c r="D293" s="3" t="s">
@@ -10442,14 +10441,14 @@
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="5" t="s">
+      <c r="A294" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B294" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C294" s="3" t="str">
-        <f>E294&amp;" "&amp;D294</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2010 DUKUHTENGAH</v>
       </c>
       <c r="D294" s="3" t="s">
@@ -10460,14 +10459,14 @@
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="5" t="s">
+      <c r="A295" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C295" s="3" t="str">
-        <f>E295&amp;" "&amp;D295</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2011 BANJARSARI</v>
       </c>
       <c r="D295" s="3" t="s">
@@ -10478,14 +10477,14 @@
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A296" s="5" t="s">
+      <c r="A296" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B296" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C296" s="3" t="str">
-        <f>E296&amp;" "&amp;D296</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2012 WADUNGASIH</v>
       </c>
       <c r="D296" s="3" t="s">
@@ -10496,14 +10495,14 @@
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="5" t="s">
+      <c r="A297" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B297" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C297" s="3" t="str">
-        <f>E297&amp;" "&amp;D297</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2013 BANJARKEMANTREN</v>
       </c>
       <c r="D297" s="3" t="s">
@@ -10514,14 +10513,14 @@
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="5" t="s">
+      <c r="A298" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B298" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C298" s="3" t="str">
-        <f>E298&amp;" "&amp;D298</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2014 SUKOREJO</v>
       </c>
       <c r="D298" s="3" t="s">
@@ -10532,14 +10531,14 @@
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="5" t="s">
+      <c r="A299" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B299" s="3" t="s">
         <v>808</v>
       </c>
       <c r="C299" s="3" t="str">
-        <f>E299&amp;" "&amp;D299</f>
+        <f t="shared" si="4"/>
         <v>35.15.15.2015 SIDOKEPUNG</v>
       </c>
       <c r="D299" s="3" t="s">
@@ -10550,14 +10549,14 @@
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A300" s="5" t="s">
+      <c r="A300" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B300" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C300" s="3" t="str">
-        <f>E300&amp;" "&amp;D300</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2001 GANTING</v>
       </c>
       <c r="D300" s="3" t="s">
@@ -10568,14 +10567,14 @@
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="5" t="s">
+      <c r="A301" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B301" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C301" s="3" t="str">
-        <f>E301&amp;" "&amp;D301</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2002 KARANGBONG</v>
       </c>
       <c r="D301" s="3" t="s">
@@ -10586,14 +10585,14 @@
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="5" t="s">
+      <c r="A302" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B302" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C302" s="3" t="str">
-        <f>E302&amp;" "&amp;D302</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2003 TEBEL</v>
       </c>
       <c r="D302" s="3" t="s">
@@ -10604,14 +10603,14 @@
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A303" s="5" t="s">
+      <c r="A303" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B303" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C303" s="3" t="str">
-        <f>E303&amp;" "&amp;D303</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2004 KRAGAN</v>
       </c>
       <c r="D303" s="3" t="s">
@@ -10622,14 +10621,14 @@
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="5" t="s">
+      <c r="A304" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B304" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C304" s="3" t="str">
-        <f>E304&amp;" "&amp;D304</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2005 GEMURUNG</v>
       </c>
       <c r="D304" s="3" t="s">
@@ -10640,14 +10639,14 @@
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="5" t="s">
+      <c r="A305" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B305" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C305" s="3" t="str">
-        <f>E305&amp;" "&amp;D305</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2006 PUNGGUL</v>
       </c>
       <c r="D305" s="3" t="s">
@@ -10658,14 +10657,14 @@
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="5" t="s">
+      <c r="A306" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B306" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C306" s="3" t="str">
-        <f>E306&amp;" "&amp;D306</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2007 WEDI</v>
       </c>
       <c r="D306" s="3" t="s">
@@ -10676,14 +10675,14 @@
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="5" t="s">
+      <c r="A307" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B307" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C307" s="3" t="str">
-        <f>E307&amp;" "&amp;D307</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2008 KETAJEN</v>
       </c>
       <c r="D307" s="3" t="s">
@@ -10694,14 +10693,14 @@
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="5" t="s">
+      <c r="A308" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B308" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C308" s="3" t="str">
-        <f>E308&amp;" "&amp;D308</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2009 GEDANGAN</v>
       </c>
       <c r="D308" s="3" t="s">
@@ -10712,14 +10711,14 @@
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A309" s="5" t="s">
+      <c r="A309" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B309" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C309" s="3" t="str">
-        <f>E309&amp;" "&amp;D309</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2010 SRUNI</v>
       </c>
       <c r="D309" s="3" t="s">
@@ -10730,14 +10729,14 @@
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="5" t="s">
+      <c r="A310" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B310" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C310" s="3" t="str">
-        <f>E310&amp;" "&amp;D310</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2011 KEBOANSIKEP</v>
       </c>
       <c r="D310" s="3" t="s">
@@ -10748,14 +10747,14 @@
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="5" t="s">
+      <c r="A311" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B311" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C311" s="3" t="str">
-        <f>E311&amp;" "&amp;D311</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2012 KEBOANANOM</v>
       </c>
       <c r="D311" s="3" t="s">
@@ -10766,14 +10765,14 @@
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="5" t="s">
+      <c r="A312" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B312" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C312" s="3" t="str">
-        <f>E312&amp;" "&amp;D312</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2013 BANGAH</v>
       </c>
       <c r="D312" s="3" t="s">
@@ -10784,14 +10783,14 @@
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="5" t="s">
+      <c r="A313" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B313" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C313" s="3" t="str">
-        <f>E313&amp;" "&amp;D313</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2014 SAWOTRATAP</v>
       </c>
       <c r="D313" s="3" t="s">
@@ -10802,14 +10801,14 @@
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="5" t="s">
+      <c r="A314" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B314" s="3" t="s">
         <v>809</v>
       </c>
       <c r="C314" s="3" t="str">
-        <f>E314&amp;" "&amp;D314</f>
+        <f t="shared" si="4"/>
         <v>35.15.16.2015 SEMAMBUNG</v>
       </c>
       <c r="D314" s="3" t="s">
@@ -10820,14 +10819,14 @@
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A315" s="5" t="s">
+      <c r="A315" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B315" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C315" s="3" t="str">
-        <f>E315&amp;" "&amp;D315</f>
+        <f t="shared" si="4"/>
         <v>35.15.17.2001 KWANGSAN</v>
       </c>
       <c r="D315" s="3" t="s">
@@ -10838,14 +10837,14 @@
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="5" t="s">
+      <c r="A316" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B316" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C316" s="3" t="str">
-        <f>E316&amp;" "&amp;D316</f>
+        <f t="shared" si="4"/>
         <v>35.15.17.2002 PEPE</v>
       </c>
       <c r="D316" s="3" t="s">
@@ -10856,14 +10855,14 @@
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A317" s="5" t="s">
+      <c r="A317" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B317" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C317" s="3" t="str">
-        <f>E317&amp;" "&amp;D317</f>
+        <f t="shared" si="4"/>
         <v>35.15.17.2003 BUNCITAN</v>
       </c>
       <c r="D317" s="3" t="s">
@@ -10874,14 +10873,14 @@
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="5" t="s">
+      <c r="A318" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B318" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C318" s="3" t="str">
-        <f>E318&amp;" "&amp;D318</f>
+        <f t="shared" si="4"/>
         <v>35.15.17.2004 KALANGANYAR</v>
       </c>
       <c r="D318" s="3" t="s">
@@ -10892,14 +10891,14 @@
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A319" s="5" t="s">
+      <c r="A319" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B319" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C319" s="3" t="str">
-        <f>E319&amp;" "&amp;D319</f>
+        <f t="shared" si="4"/>
         <v>35.15.17.2005 TAMBAKCEMANDI</v>
       </c>
       <c r="D319" s="3" t="s">
@@ -10910,14 +10909,14 @@
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A320" s="5" t="s">
+      <c r="A320" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B320" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C320" s="3" t="str">
-        <f>E320&amp;" "&amp;D320</f>
+        <f t="shared" si="4"/>
         <v>35.15.17.2006 GISIKCEMANDI</v>
       </c>
       <c r="D320" s="3" t="s">
@@ -10928,14 +10927,14 @@
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="5" t="s">
+      <c r="A321" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B321" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C321" s="3" t="str">
-        <f>E321&amp;" "&amp;D321</f>
+        <f t="shared" si="4"/>
         <v>35.15.17.2007 CEMANDI</v>
       </c>
       <c r="D321" s="3" t="s">
@@ -10946,14 +10945,14 @@
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="5" t="s">
+      <c r="A322" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B322" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C322" s="3" t="str">
-        <f>E322&amp;" "&amp;D322</f>
+        <f t="shared" ref="C322:C385" si="5">E322&amp;" "&amp;D322</f>
         <v>35.15.17.2008 PULUNGAN</v>
       </c>
       <c r="D322" s="3" t="s">
@@ -10964,14 +10963,14 @@
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="5" t="s">
+      <c r="A323" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B323" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C323" s="3" t="str">
-        <f>E323&amp;" "&amp;D323</f>
+        <f t="shared" si="5"/>
         <v>35.15.17.2009 BETRO</v>
       </c>
       <c r="D323" s="3" t="s">
@@ -10982,14 +10981,14 @@
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="5" t="s">
+      <c r="A324" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B324" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C324" s="3" t="str">
-        <f>E324&amp;" "&amp;D324</f>
+        <f t="shared" si="5"/>
         <v>35.15.17.2010 SEDATIAGUNG</v>
       </c>
       <c r="D324" s="3" t="s">
@@ -11000,14 +10999,14 @@
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A325" s="5" t="s">
+      <c r="A325" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B325" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C325" s="3" t="str">
-        <f>E325&amp;" "&amp;D325</f>
+        <f t="shared" si="5"/>
         <v>35.15.17.2011 SEDATIGEDE</v>
       </c>
       <c r="D325" s="3" t="s">
@@ -11018,14 +11017,14 @@
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A326" s="5" t="s">
+      <c r="A326" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B326" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C326" s="3" t="str">
-        <f>E326&amp;" "&amp;D326</f>
+        <f t="shared" si="5"/>
         <v>35.15.17.2012 PABEAN</v>
       </c>
       <c r="D326" s="3" t="s">
@@ -11036,14 +11035,14 @@
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="5" t="s">
+      <c r="A327" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B327" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C327" s="3" t="str">
-        <f>E327&amp;" "&amp;D327</f>
+        <f t="shared" si="5"/>
         <v>35.15.17.2013 SEMAMPIR</v>
       </c>
       <c r="D327" s="3" t="s">
@@ -11054,14 +11053,14 @@
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="5" t="s">
+      <c r="A328" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B328" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C328" s="3" t="str">
-        <f>E328&amp;" "&amp;D328</f>
+        <f t="shared" si="5"/>
         <v>35.15.17.2014 PRANTI</v>
       </c>
       <c r="D328" s="3" t="s">
@@ -11072,14 +11071,14 @@
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="5" t="s">
+      <c r="A329" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B329" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C329" s="3" t="str">
-        <f>E329&amp;" "&amp;D329</f>
+        <f t="shared" si="5"/>
         <v>35.15.17.2015 SEGOROTAMBAK</v>
       </c>
       <c r="D329" s="3" t="s">
@@ -11090,14 +11089,14 @@
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A330" s="5" t="s">
+      <c r="A330" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B330" s="3" t="s">
         <v>810</v>
       </c>
       <c r="C330" s="3" t="str">
-        <f>E330&amp;" "&amp;D330</f>
+        <f t="shared" si="5"/>
         <v>35.15.17.2016 BANJARKEMUNING</v>
       </c>
       <c r="D330" s="3" t="s">
@@ -11108,14 +11107,14 @@
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A331" s="5" t="s">
+      <c r="A331" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B331" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C331" s="3" t="str">
-        <f>E331&amp;" "&amp;D331</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2001 PEPELEGI</v>
       </c>
       <c r="D331" s="3" t="s">
@@ -11126,14 +11125,14 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="5" t="s">
+      <c r="A332" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B332" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C332" s="3" t="str">
-        <f>E332&amp;" "&amp;D332</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2002 WARU</v>
       </c>
       <c r="D332" s="3" t="s">
@@ -11144,14 +11143,14 @@
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="5" t="s">
+      <c r="A333" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B333" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C333" s="3" t="str">
-        <f>E333&amp;" "&amp;D333</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2003 KUREKSARI</v>
       </c>
       <c r="D333" s="3" t="s">
@@ -11162,14 +11161,14 @@
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A334" s="5" t="s">
+      <c r="A334" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B334" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C334" s="3" t="str">
-        <f>E334&amp;" "&amp;D334</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2004 NGINGAS</v>
       </c>
       <c r="D334" s="3" t="s">
@@ -11180,14 +11179,14 @@
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A335" s="5" t="s">
+      <c r="A335" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B335" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C335" s="3" t="str">
-        <f>E335&amp;" "&amp;D335</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2006 TAMBAKSAWAH</v>
       </c>
       <c r="D335" s="3" t="s">
@@ -11198,14 +11197,14 @@
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A336" s="5" t="s">
+      <c r="A336" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B336" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C336" s="3" t="str">
-        <f>E336&amp;" "&amp;D336</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2007 TAMBAKREJO</v>
       </c>
       <c r="D336" s="3" t="s">
@@ -11216,14 +11215,14 @@
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="5" t="s">
+      <c r="A337" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B337" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C337" s="3" t="str">
-        <f>E337&amp;" "&amp;D337</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2008 TAMBAKOSO</v>
       </c>
       <c r="D337" s="3" t="s">
@@ -11234,14 +11233,14 @@
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="5" t="s">
+      <c r="A338" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B338" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C338" s="3" t="str">
-        <f>E338&amp;" "&amp;D338</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2009 TAMBAKSUMUR</v>
       </c>
       <c r="D338" s="3" t="s">
@@ -11252,14 +11251,14 @@
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A339" s="5" t="s">
+      <c r="A339" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B339" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C339" s="3" t="str">
-        <f>E339&amp;" "&amp;D339</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2010 WADUNGASRI</v>
       </c>
       <c r="D339" s="3" t="s">
@@ -11270,14 +11269,14 @@
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A340" s="5" t="s">
+      <c r="A340" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B340" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C340" s="3" t="str">
-        <f>E340&amp;" "&amp;D340</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2011 KEPUHKIRIMAN</v>
       </c>
       <c r="D340" s="3" t="s">
@@ -11288,14 +11287,14 @@
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A341" s="5" t="s">
+      <c r="A341" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B341" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C341" s="3" t="str">
-        <f>E341&amp;" "&amp;D341</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2012 BERBEK</v>
       </c>
       <c r="D341" s="3" t="s">
@@ -11306,14 +11305,14 @@
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A342" s="5" t="s">
+      <c r="A342" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B342" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C342" s="3" t="str">
-        <f>E342&amp;" "&amp;D342</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2013 WEDORO</v>
       </c>
       <c r="D342" s="3" t="s">
@@ -11324,14 +11323,14 @@
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A343" s="5" t="s">
+      <c r="A343" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C343" s="3" t="str">
-        <f>E343&amp;" "&amp;D343</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2014 JANTI</v>
       </c>
       <c r="D343" s="3" t="s">
@@ -11342,14 +11341,14 @@
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A344" s="5" t="s">
+      <c r="A344" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B344" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C344" s="3" t="str">
-        <f>E344&amp;" "&amp;D344</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2015 KEDUNGREJO</v>
       </c>
       <c r="D344" s="3" t="s">
@@ -11360,14 +11359,14 @@
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A345" s="5" t="s">
+      <c r="A345" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B345" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C345" s="3" t="str">
-        <f>E345&amp;" "&amp;D345</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2016 MEDAENG</v>
       </c>
       <c r="D345" s="3" t="s">
@@ -11378,14 +11377,14 @@
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A346" s="5" t="s">
+      <c r="A346" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B346" s="3" t="s">
         <v>811</v>
       </c>
       <c r="C346" s="3" t="str">
-        <f>E346&amp;" "&amp;D346</f>
+        <f t="shared" si="5"/>
         <v>35.15.18.2017 BUNGURASIH</v>
       </c>
       <c r="D346" s="3" t="s">
